--- a/Code/Results/Cases/Case_4_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.45299632433316</v>
+        <v>10.33691749721583</v>
       </c>
       <c r="C2">
-        <v>6.410244450105323</v>
+        <v>4.170258155099462</v>
       </c>
       <c r="D2">
-        <v>10.94691336362556</v>
+        <v>14.79079604026649</v>
       </c>
       <c r="E2">
-        <v>11.02578453739457</v>
+        <v>16.10822624963416</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.19719455491109</v>
+        <v>36.25429821332657</v>
       </c>
       <c r="H2">
-        <v>9.916536605889483</v>
+        <v>16.24273167720445</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.423201829430457</v>
+        <v>9.379690435276443</v>
       </c>
       <c r="K2">
-        <v>10.88196825916456</v>
+        <v>9.729424499044162</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.99730053564053</v>
+        <v>16.37441099100724</v>
       </c>
       <c r="N2">
-        <v>12.94198447784085</v>
+        <v>20.03992741058664</v>
       </c>
       <c r="O2">
-        <v>16.59354253650354</v>
+        <v>25.70930970980926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6256171895608</v>
+        <v>10.10480197286005</v>
       </c>
       <c r="C3">
-        <v>6.103706587288015</v>
+        <v>4.015903156279899</v>
       </c>
       <c r="D3">
-        <v>10.59444613895739</v>
+        <v>14.76347697859329</v>
       </c>
       <c r="E3">
-        <v>10.77527602294639</v>
+        <v>16.10645183958952</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.87309271840158</v>
+        <v>36.31820723907194</v>
       </c>
       <c r="H3">
-        <v>9.9606563841728</v>
+        <v>16.28655910130934</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.433664029308282</v>
+        <v>9.397094410548208</v>
       </c>
       <c r="K3">
-        <v>10.23898405081131</v>
+        <v>9.578106636755992</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.52789283737959</v>
+        <v>16.32018063545015</v>
       </c>
       <c r="N3">
-        <v>13.13890003171693</v>
+        <v>20.09920009966916</v>
       </c>
       <c r="O3">
-        <v>16.57780240881135</v>
+        <v>25.77750679315353</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.08759582751285</v>
+        <v>9.961493214180592</v>
       </c>
       <c r="C4">
-        <v>5.907192972177546</v>
+        <v>3.917319327312368</v>
       </c>
       <c r="D4">
-        <v>10.37842383642601</v>
+        <v>14.74963876133536</v>
       </c>
       <c r="E4">
-        <v>10.62497612609548</v>
+        <v>16.10828715584081</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.69662776061152</v>
+        <v>36.36656274402373</v>
       </c>
       <c r="H4">
-        <v>9.993158446695833</v>
+        <v>16.31574502335022</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.442000404693839</v>
+        <v>9.408695777678485</v>
       </c>
       <c r="K4">
-        <v>9.822914107459866</v>
+        <v>9.485564043353678</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.23480553806527</v>
+        <v>16.28947046972246</v>
       </c>
       <c r="N4">
-        <v>13.26256553902808</v>
+        <v>20.13729637201298</v>
       </c>
       <c r="O4">
-        <v>16.58003226554159</v>
+        <v>25.82402941720584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86076637504357</v>
+        <v>9.902982280304533</v>
       </c>
       <c r="C5">
-        <v>5.825080910267219</v>
+        <v>3.876225849872186</v>
       </c>
       <c r="D5">
-        <v>10.29062116453539</v>
+        <v>14.74474241737844</v>
       </c>
       <c r="E5">
-        <v>10.56467709011826</v>
+        <v>16.10977199788083</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.63028837174568</v>
+        <v>36.38855490154317</v>
       </c>
       <c r="H5">
-        <v>10.00772255616971</v>
+        <v>16.32821091247882</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.445869534410875</v>
+        <v>9.413653915406901</v>
       </c>
       <c r="K5">
-        <v>9.648045511785613</v>
+        <v>9.447990748812321</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.11432379260373</v>
+        <v>16.27761566035815</v>
       </c>
       <c r="N5">
-        <v>13.3136741460198</v>
+        <v>20.15325029836046</v>
       </c>
       <c r="O5">
-        <v>16.58383442286756</v>
+        <v>25.84415562416693</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.82264261255662</v>
+        <v>9.893262448635772</v>
       </c>
       <c r="C6">
-        <v>5.81132542125017</v>
+        <v>3.869347961754273</v>
       </c>
       <c r="D6">
-        <v>10.27605928620049</v>
+        <v>14.7439743719748</v>
       </c>
       <c r="E6">
-        <v>10.55472372690476</v>
+        <v>16.11006310021688</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.61960613727869</v>
+        <v>36.39234463916965</v>
       </c>
       <c r="H6">
-        <v>10.01021940002231</v>
+        <v>16.33031543891077</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.446540249581591</v>
+        <v>9.414491141094098</v>
       </c>
       <c r="K6">
-        <v>9.61868883283293</v>
+        <v>9.441761455698861</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.09426026772356</v>
+        <v>16.27568728633338</v>
       </c>
       <c r="N6">
-        <v>13.32220438584771</v>
+        <v>20.15592540640752</v>
       </c>
       <c r="O6">
-        <v>16.58463765372185</v>
+        <v>25.84756806299846</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08456746906859</v>
+        <v>9.960704449578046</v>
       </c>
       <c r="C7">
-        <v>5.90609372314464</v>
+        <v>3.916768796681422</v>
       </c>
       <c r="D7">
-        <v>10.37723859928671</v>
+        <v>14.74956971413941</v>
       </c>
       <c r="E7">
-        <v>10.62415898178639</v>
+        <v>16.10830419541983</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.69571066451427</v>
+        <v>36.36685008581939</v>
       </c>
       <c r="H7">
-        <v>9.993349575921672</v>
+        <v>16.31591082492721</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.442050685730026</v>
+        <v>9.408761711179828</v>
       </c>
       <c r="K7">
-        <v>9.820577242132565</v>
+        <v>9.485056694496494</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.23318466640744</v>
+        <v>16.28930790832533</v>
       </c>
       <c r="N7">
-        <v>13.2632518907924</v>
+        <v>20.13750979201583</v>
       </c>
       <c r="O7">
-        <v>16.58007195684586</v>
+        <v>25.82429611938333</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.17392177979937</v>
+        <v>10.25709901736279</v>
       </c>
       <c r="C8">
-        <v>6.30630248865784</v>
+        <v>4.117848608523504</v>
       </c>
       <c r="D8">
-        <v>10.82537601450806</v>
+        <v>14.78077004672578</v>
       </c>
       <c r="E8">
-        <v>10.93871975239626</v>
+        <v>16.1070083647948</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.08071553015745</v>
+        <v>36.27443932312184</v>
       </c>
       <c r="H8">
-        <v>9.930600276285055</v>
+        <v>16.25737113931234</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.426406813628183</v>
+        <v>9.385501568271895</v>
       </c>
       <c r="K8">
-        <v>10.66469871981899</v>
+        <v>9.677201539010156</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.83656032367749</v>
+        <v>16.355181030705</v>
       </c>
       <c r="N8">
-        <v>13.00932090104092</v>
+        <v>20.06001201667788</v>
       </c>
       <c r="O8">
-        <v>16.5855884540083</v>
+        <v>25.73185836550092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.07376784224917</v>
+        <v>10.82841258691324</v>
       </c>
       <c r="C9">
-        <v>7.023349842600278</v>
+        <v>4.480492546997845</v>
       </c>
       <c r="D9">
-        <v>11.70205154349043</v>
+        <v>14.86502004246977</v>
       </c>
       <c r="E9">
-        <v>11.5805594566727</v>
+        <v>16.12759737335171</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.01786269597225</v>
+        <v>36.16574600182818</v>
       </c>
       <c r="H9">
-        <v>9.852428999888827</v>
+        <v>16.16062521468277</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.41131570605721</v>
+        <v>9.347135672981754</v>
       </c>
       <c r="K9">
-        <v>12.15039773284689</v>
+        <v>10.05489991613768</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.97429559916109</v>
+        <v>16.50445794557015</v>
       </c>
       <c r="N9">
-        <v>12.53228323547879</v>
+        <v>19.92149029132502</v>
       </c>
       <c r="O9">
-        <v>16.69506360069531</v>
+        <v>25.58753218658116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.32799399989825</v>
+        <v>11.23748544830491</v>
       </c>
       <c r="C10">
-        <v>7.50691937705671</v>
+        <v>4.725966213498171</v>
       </c>
       <c r="D10">
-        <v>12.33853428022788</v>
+        <v>14.94063831228132</v>
       </c>
       <c r="E10">
-        <v>12.06360513033156</v>
+        <v>16.15670328038593</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.82084597858611</v>
+        <v>36.13032705961124</v>
       </c>
       <c r="H10">
-        <v>9.825112342707959</v>
+        <v>16.10054087902052</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.410312919686681</v>
+        <v>9.323345996871147</v>
       </c>
       <c r="K10">
-        <v>13.13819154820574</v>
+        <v>10.33030528782416</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.77464554860052</v>
+        <v>16.62577040840469</v>
       </c>
       <c r="N10">
-        <v>12.19312932515901</v>
+        <v>19.82783564714785</v>
       </c>
       <c r="O10">
-        <v>16.8413596102607</v>
+        <v>25.50408712141415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86840144960478</v>
+        <v>11.42037384963327</v>
       </c>
       <c r="C11">
-        <v>7.717261382562903</v>
+        <v>4.832810881229221</v>
       </c>
       <c r="D11">
-        <v>12.62531704595954</v>
+        <v>14.97793315498053</v>
       </c>
       <c r="E11">
-        <v>12.28511611186716</v>
+        <v>16.17294668110715</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.21142465507623</v>
+        <v>36.12389356584374</v>
       </c>
       <c r="H11">
-        <v>9.819847147632919</v>
+        <v>16.07559242943749</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.41217732976621</v>
+        <v>9.313474046056227</v>
       </c>
       <c r="K11">
-        <v>13.56513076875123</v>
+        <v>10.45460328839771</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.12974310338493</v>
+        <v>16.68334305829903</v>
       </c>
       <c r="N11">
-        <v>12.0409641465066</v>
+        <v>19.78697460639721</v>
       </c>
       <c r="O11">
-        <v>16.92339286784017</v>
+        <v>25.47104421187314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06875261609725</v>
+        <v>11.48910069973303</v>
       </c>
       <c r="C12">
-        <v>7.795513313132226</v>
+        <v>4.872557778678487</v>
       </c>
       <c r="D12">
-        <v>12.73343993745862</v>
+        <v>14.99246403075995</v>
       </c>
       <c r="E12">
-        <v>12.36919570181855</v>
+        <v>16.17952602533799</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.36298117653007</v>
+        <v>36.12284999730003</v>
       </c>
       <c r="H12">
-        <v>9.81893644644226</v>
+        <v>16.06648781015172</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.413228177148951</v>
+        <v>9.309872069534965</v>
       </c>
       <c r="K12">
-        <v>13.72359355182623</v>
+        <v>10.50148717868127</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.26283255324878</v>
+        <v>16.70547466931058</v>
       </c>
       <c r="N12">
-        <v>11.98361861162178</v>
+        <v>19.77175091890984</v>
       </c>
       <c r="O12">
-        <v>16.95677572426558</v>
+        <v>25.45923961455691</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.02579343580275</v>
+        <v>11.47432371313249</v>
       </c>
       <c r="C13">
-        <v>7.778722797468632</v>
+        <v>4.864029557103793</v>
       </c>
       <c r="D13">
-        <v>12.71017602309341</v>
+        <v>14.98931653251744</v>
       </c>
       <c r="E13">
-        <v>12.3510796839237</v>
+        <v>16.17809005577212</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.33017815189305</v>
+        <v>36.12301280645324</v>
       </c>
       <c r="H13">
-        <v>9.819083544536994</v>
+        <v>16.06843340651344</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.412986340478944</v>
+        <v>9.310641761776758</v>
       </c>
       <c r="K13">
-        <v>13.68960824834467</v>
+        <v>10.49139879663494</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.23423186451942</v>
+        <v>16.70069376405381</v>
       </c>
       <c r="N13">
-        <v>11.99595718915862</v>
+        <v>19.77501853359897</v>
       </c>
       <c r="O13">
-        <v>16.94948156673768</v>
+        <v>25.46175044075787</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.88497015951969</v>
+        <v>11.42603902745602</v>
       </c>
       <c r="C14">
-        <v>7.723727337541038</v>
+        <v>4.836095270367446</v>
       </c>
       <c r="D14">
-        <v>12.63422232326816</v>
+        <v>14.97912048868132</v>
       </c>
       <c r="E14">
-        <v>12.29202972236024</v>
+        <v>16.17347940487608</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.22382003536243</v>
+        <v>36.12377979849092</v>
       </c>
       <c r="H14">
-        <v>9.819750205417419</v>
+        <v>16.07483651656982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.412256807504222</v>
+        <v>9.313174979040541</v>
       </c>
       <c r="K14">
-        <v>13.57823183281638</v>
+        <v>10.45846440540825</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.14072051335707</v>
+        <v>16.68515730058978</v>
       </c>
       <c r="N14">
-        <v>12.03624092993519</v>
+        <v>19.78571715050598</v>
       </c>
       <c r="O14">
-        <v>16.92609230776317</v>
+        <v>25.47005884504126</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79815461149704</v>
+        <v>11.39639241362934</v>
       </c>
       <c r="C15">
-        <v>7.689858372714431</v>
+        <v>4.818891349932453</v>
       </c>
       <c r="D15">
-        <v>12.58763441269753</v>
+        <v>14.97292801301954</v>
       </c>
       <c r="E15">
-        <v>12.25588414263978</v>
+        <v>16.17071091796405</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.15914863325473</v>
+        <v>36.12443097698428</v>
       </c>
       <c r="H15">
-        <v>9.82030121751929</v>
+        <v>16.0788032502186</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.411855192015578</v>
+        <v>9.31474439116017</v>
       </c>
       <c r="K15">
-        <v>13.50959302914305</v>
+        <v>10.43826578163745</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.08326032759475</v>
+        <v>16.67568335830012</v>
       </c>
       <c r="N15">
-        <v>12.06095097034713</v>
+        <v>19.79230282145749</v>
       </c>
       <c r="O15">
-        <v>16.91207035849644</v>
+        <v>25.47524021794295</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.29207434038039</v>
+        <v>11.22546286317024</v>
       </c>
       <c r="C16">
-        <v>7.492977775470917</v>
+        <v>4.718884900094737</v>
       </c>
       <c r="D16">
-        <v>12.31972985373142</v>
+        <v>14.93825858113851</v>
       </c>
       <c r="E16">
-        <v>12.04915955392442</v>
+        <v>16.15570187228476</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.7958312846398</v>
+        <v>36.13094236102113</v>
       </c>
       <c r="H16">
-        <v>9.825605061881371</v>
+        <v>16.10221929301765</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.410238716250453</v>
+        <v>9.324010244333529</v>
       </c>
       <c r="K16">
-        <v>13.10984005573842</v>
+        <v>10.32215854633415</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.75125054747071</v>
+        <v>16.62205481973384</v>
       </c>
       <c r="N16">
-        <v>12.20311390129838</v>
+        <v>19.83054098765604</v>
       </c>
       <c r="O16">
-        <v>16.8363180424933</v>
+        <v>25.50634557961706</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.97392120139117</v>
+        <v>11.11973283161407</v>
       </c>
       <c r="C17">
-        <v>7.369717871153513</v>
+        <v>4.656284318916414</v>
       </c>
       <c r="D17">
-        <v>12.15461308514704</v>
+        <v>14.91772595830673</v>
       </c>
       <c r="E17">
-        <v>11.92275246254322</v>
+        <v>16.14726106551762</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.57944078566203</v>
+        <v>36.13741677071211</v>
       </c>
       <c r="H17">
-        <v>9.830730422419071</v>
+        <v>16.11719491309541</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.409849231976884</v>
+        <v>9.329937670230425</v>
       </c>
       <c r="K17">
-        <v>12.85887161166606</v>
+        <v>10.25064674733823</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.54520549942389</v>
+        <v>16.58975761405856</v>
       </c>
       <c r="N17">
-        <v>12.29084896369607</v>
+        <v>19.85444446285873</v>
       </c>
       <c r="O17">
-        <v>16.79387841674671</v>
+        <v>25.52668775653385</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.78808758523649</v>
+        <v>11.05862223057593</v>
       </c>
       <c r="C18">
-        <v>7.297915514050437</v>
+        <v>4.619825169151828</v>
       </c>
       <c r="D18">
-        <v>12.05938683413556</v>
+        <v>14.90618922540696</v>
       </c>
       <c r="E18">
-        <v>11.85021621771135</v>
+        <v>16.14268902387149</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.45735958631899</v>
+        <v>36.14205170067458</v>
       </c>
       <c r="H18">
-        <v>9.834349160904704</v>
+        <v>16.1260329097043</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.409842948201801</v>
+        <v>9.333436414396415</v>
       </c>
       <c r="K18">
-        <v>12.71241040971981</v>
+        <v>10.20942480206745</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.42585217317995</v>
+        <v>16.5714066101642</v>
       </c>
       <c r="N18">
-        <v>12.34151297239809</v>
+        <v>19.8683572288705</v>
       </c>
       <c r="O18">
-        <v>16.77092020491867</v>
+        <v>25.53885076524803</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72467832212685</v>
+        <v>11.0378823128726</v>
       </c>
       <c r="C19">
-        <v>7.273449301573747</v>
+        <v>4.607403569745768</v>
       </c>
       <c r="D19">
-        <v>12.02710359009499</v>
+        <v>14.90233023216792</v>
       </c>
       <c r="E19">
-        <v>11.82568765826551</v>
+        <v>16.14118969610073</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.41643330423129</v>
+        <v>36.14377743475179</v>
       </c>
       <c r="H19">
-        <v>9.835688009167887</v>
+        <v>16.12906384795301</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.409877883556762</v>
+        <v>9.334636400673018</v>
       </c>
       <c r="K19">
-        <v>12.66245832228667</v>
+        <v>10.19545360954893</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.38529951642206</v>
+        <v>16.56523239727233</v>
       </c>
       <c r="N19">
-        <v>12.35870231543634</v>
+        <v>19.87309607461558</v>
       </c>
       <c r="O19">
-        <v>16.76339346351726</v>
+        <v>25.5430483915237</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00808278612429</v>
+        <v>11.13101927587559</v>
       </c>
       <c r="C20">
-        <v>7.382933041023914</v>
+        <v>4.662995285693916</v>
       </c>
       <c r="D20">
-        <v>12.17221709583959</v>
+        <v>14.91988348559541</v>
       </c>
       <c r="E20">
-        <v>11.93619156896964</v>
+        <v>16.1481303502862</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.60222937371426</v>
+        <v>36.13663326214554</v>
       </c>
       <c r="H20">
-        <v>9.830115015949973</v>
+        <v>16.11557750673867</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.409868078709824</v>
+        <v>9.329297430546756</v>
       </c>
       <c r="K20">
-        <v>12.88580601170236</v>
+        <v>10.25826896076962</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.56722712980213</v>
+        <v>16.59317246263828</v>
       </c>
       <c r="N20">
-        <v>12.2814888014828</v>
+        <v>19.85188291958797</v>
       </c>
       <c r="O20">
-        <v>16.79824523999799</v>
+        <v>25.52447439878279</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.92644941076417</v>
+        <v>11.44023629082961</v>
       </c>
       <c r="C21">
-        <v>7.739918921047686</v>
+        <v>4.844319735086024</v>
       </c>
       <c r="D21">
-        <v>12.65654524438178</v>
+        <v>14.98210430603379</v>
       </c>
       <c r="E21">
-        <v>12.30936917161872</v>
+        <v>16.17482207001004</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.25496077531596</v>
+        <v>36.12351671605965</v>
       </c>
       <c r="H21">
-        <v>9.819524562743725</v>
+        <v>16.07294646426111</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.412461639719518</v>
+        <v>9.312427214563835</v>
       </c>
       <c r="K21">
-        <v>13.61103276850793</v>
+        <v>10.46814339397354</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.16822507934824</v>
+        <v>16.68971188487788</v>
       </c>
       <c r="N21">
-        <v>12.02440136005274</v>
+        <v>19.78256794491811</v>
       </c>
       <c r="O21">
-        <v>16.93289865112344</v>
+        <v>25.46759924188366</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.50167553025898</v>
+        <v>11.63921555722518</v>
       </c>
       <c r="C22">
-        <v>7.965066460205083</v>
+        <v>4.958663554571794</v>
       </c>
       <c r="D22">
-        <v>12.9702815278162</v>
+        <v>15.02514387935627</v>
       </c>
       <c r="E22">
-        <v>12.55439533585673</v>
+        <v>16.19476135528181</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.70285197600179</v>
+        <v>36.12306146166339</v>
       </c>
       <c r="H22">
-        <v>9.818942165774235</v>
+        <v>16.04708279341243</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.416172080786925</v>
+        <v>9.302195969636482</v>
       </c>
       <c r="K22">
-        <v>14.06631076471392</v>
+        <v>10.6042109313705</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.55294913300473</v>
+        <v>16.75472362052973</v>
       </c>
       <c r="N22">
-        <v>11.85797481533332</v>
+        <v>19.73872037328383</v>
       </c>
       <c r="O22">
-        <v>17.03445811407109</v>
+        <v>25.4345553970269</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.19693664507892</v>
+        <v>11.53332275379228</v>
       </c>
       <c r="C23">
-        <v>7.845651303182985</v>
+        <v>4.898022649155172</v>
       </c>
       <c r="D23">
-        <v>12.80311391637946</v>
+        <v>15.00195843787193</v>
       </c>
       <c r="E23">
-        <v>12.42353379629741</v>
+        <v>16.18389236827607</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.4618526421865</v>
+        <v>36.12256168830083</v>
       </c>
       <c r="H23">
-        <v>9.818654948782104</v>
+        <v>16.06070390013038</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.414003563859318</v>
+        <v>9.307583989901893</v>
       </c>
       <c r="K23">
-        <v>13.82502564481155</v>
+        <v>10.53170341621075</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.34837688352054</v>
+        <v>16.71985463259264</v>
       </c>
       <c r="N23">
-        <v>11.9466636993297</v>
+        <v>19.76198999758644</v>
       </c>
       <c r="O23">
-        <v>16.97898380039643</v>
+        <v>25.45181355953889</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.9926474420215</v>
+        <v>11.12591768143526</v>
       </c>
       <c r="C24">
-        <v>7.376961385095333</v>
+        <v>4.659962717719563</v>
       </c>
       <c r="D24">
-        <v>12.16425924598029</v>
+        <v>14.91890723289738</v>
       </c>
       <c r="E24">
-        <v>11.93011531826139</v>
+        <v>16.14773647206589</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.59191941371896</v>
+        <v>36.13698464341999</v>
       </c>
       <c r="H24">
-        <v>9.830391151791041</v>
+        <v>16.11630802496043</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.409858881053296</v>
+        <v>9.329586599464825</v>
       </c>
       <c r="K24">
-        <v>12.87363574844836</v>
+        <v>10.2548232938224</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.55727393260516</v>
+        <v>16.59162793238892</v>
       </c>
       <c r="N24">
-        <v>12.28571983113013</v>
+        <v>19.85304046260532</v>
       </c>
       <c r="O24">
-        <v>16.79626651816475</v>
+        <v>25.52547360003674</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.58486177577259</v>
+        <v>10.67541275587771</v>
       </c>
       <c r="C25">
-        <v>6.836854366318029</v>
+        <v>4.38596381572502</v>
       </c>
       <c r="D25">
-        <v>11.46580701762876</v>
+        <v>14.83979172402793</v>
       </c>
       <c r="E25">
-        <v>11.40464553367997</v>
+        <v>16.11956239977939</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.74442428574791</v>
+        <v>36.18735947123493</v>
       </c>
       <c r="H25">
-        <v>9.868492841908392</v>
+        <v>16.18486605728315</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.413670408122909</v>
+        <v>9.356740897625166</v>
       </c>
       <c r="K25">
-        <v>11.76670454251208</v>
+        <v>9.952902402158394</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.67225570120468</v>
+        <v>16.46198385856963</v>
       </c>
       <c r="N25">
-        <v>12.65923776178942</v>
+        <v>19.95753265838665</v>
       </c>
       <c r="O25">
-        <v>16.65428679316089</v>
+        <v>25.62261356220631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.33691749721583</v>
+        <v>12.45299632433317</v>
       </c>
       <c r="C2">
-        <v>4.170258155099462</v>
+        <v>6.410244450105336</v>
       </c>
       <c r="D2">
-        <v>14.79079604026649</v>
+        <v>10.9469133636256</v>
       </c>
       <c r="E2">
-        <v>16.10822624963416</v>
+        <v>11.02578453739462</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.25429821332657</v>
+        <v>26.19719455491124</v>
       </c>
       <c r="H2">
-        <v>16.24273167720445</v>
+        <v>9.916536605889432</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.379690435276443</v>
+        <v>5.423201829430432</v>
       </c>
       <c r="K2">
-        <v>9.729424499044162</v>
+        <v>10.88196825916457</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.37441099100724</v>
+        <v>11.99730053564056</v>
       </c>
       <c r="N2">
-        <v>20.03992741058664</v>
+        <v>12.94198447784085</v>
       </c>
       <c r="O2">
-        <v>25.70930970980926</v>
+        <v>16.59354253650355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.10480197286005</v>
+        <v>11.62561718956088</v>
       </c>
       <c r="C3">
-        <v>4.015903156279899</v>
+        <v>6.103706587288098</v>
       </c>
       <c r="D3">
-        <v>14.76347697859329</v>
+        <v>10.59444613895742</v>
       </c>
       <c r="E3">
-        <v>16.10645183958952</v>
+        <v>10.77527602294633</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.31820723907194</v>
+        <v>25.87309271840135</v>
       </c>
       <c r="H3">
-        <v>16.28655910130934</v>
+        <v>9.960656384172754</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.397094410548208</v>
+        <v>5.433664029308256</v>
       </c>
       <c r="K3">
-        <v>9.578106636755992</v>
+        <v>10.23898405081139</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.32018063545015</v>
+        <v>11.52789283737953</v>
       </c>
       <c r="N3">
-        <v>20.09920009966916</v>
+        <v>13.13890003171689</v>
       </c>
       <c r="O3">
-        <v>25.77750679315353</v>
+        <v>16.57780240881121</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.961493214180592</v>
+        <v>11.08759582751285</v>
       </c>
       <c r="C4">
-        <v>3.917319327312368</v>
+        <v>5.907192972177644</v>
       </c>
       <c r="D4">
-        <v>14.74963876133536</v>
+        <v>10.37842383642604</v>
       </c>
       <c r="E4">
-        <v>16.10828715584081</v>
+        <v>10.62497612609556</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.36656274402373</v>
+        <v>25.69662776061148</v>
       </c>
       <c r="H4">
-        <v>16.31574502335022</v>
+        <v>9.993158446695842</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.408695777678485</v>
+        <v>5.442000404693895</v>
       </c>
       <c r="K4">
-        <v>9.485564043353678</v>
+        <v>9.822914107459875</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.28947046972246</v>
+        <v>11.2348055380653</v>
       </c>
       <c r="N4">
-        <v>20.13729637201298</v>
+        <v>13.26256553902805</v>
       </c>
       <c r="O4">
-        <v>25.82402941720584</v>
+        <v>16.58003226554155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.902982280304533</v>
+        <v>10.86076637504355</v>
       </c>
       <c r="C5">
-        <v>3.876225849872186</v>
+        <v>5.825080910267257</v>
       </c>
       <c r="D5">
-        <v>14.74474241737844</v>
+        <v>10.29062116453548</v>
       </c>
       <c r="E5">
-        <v>16.10977199788083</v>
+        <v>10.56467709011821</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.38855490154317</v>
+        <v>25.63028837174583</v>
       </c>
       <c r="H5">
-        <v>16.32821091247882</v>
+        <v>10.00772255616977</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.413653915406901</v>
+        <v>5.445869534410789</v>
       </c>
       <c r="K5">
-        <v>9.447990748812321</v>
+        <v>9.6480455117856</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.27761566035815</v>
+        <v>11.1143237926037</v>
       </c>
       <c r="N5">
-        <v>20.15325029836046</v>
+        <v>13.31367414601986</v>
       </c>
       <c r="O5">
-        <v>25.84415562416693</v>
+        <v>16.58383442286766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.893262448635772</v>
+        <v>10.82264261255665</v>
       </c>
       <c r="C6">
-        <v>3.869347961754273</v>
+        <v>5.811325421249982</v>
       </c>
       <c r="D6">
-        <v>14.7439743719748</v>
+        <v>10.27605928620047</v>
       </c>
       <c r="E6">
-        <v>16.11006310021688</v>
+        <v>10.5547237269048</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.39234463916965</v>
+        <v>25.61960613727874</v>
       </c>
       <c r="H6">
-        <v>16.33031543891077</v>
+        <v>10.01021940002231</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.414491141094098</v>
+        <v>5.446540249581621</v>
       </c>
       <c r="K6">
-        <v>9.441761455698861</v>
+        <v>9.618688832832895</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.27568728633338</v>
+        <v>11.09426026772358</v>
       </c>
       <c r="N6">
-        <v>20.15592540640752</v>
+        <v>13.32220438584771</v>
       </c>
       <c r="O6">
-        <v>25.84756806299846</v>
+        <v>16.58463765372186</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.960704449578046</v>
+        <v>11.08456746906858</v>
       </c>
       <c r="C7">
-        <v>3.916768796681422</v>
+        <v>5.906093723145041</v>
       </c>
       <c r="D7">
-        <v>14.74956971413941</v>
+        <v>10.3772385992866</v>
       </c>
       <c r="E7">
-        <v>16.10830419541983</v>
+        <v>10.62415898178635</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.36685008581939</v>
+        <v>25.69571066451387</v>
       </c>
       <c r="H7">
-        <v>16.31591082492721</v>
+        <v>9.993349575921616</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.408761711179828</v>
+        <v>5.442050685730026</v>
       </c>
       <c r="K7">
-        <v>9.485056694496494</v>
+        <v>9.820577242132643</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.28930790832533</v>
+        <v>11.23318466640736</v>
       </c>
       <c r="N7">
-        <v>20.13750979201583</v>
+        <v>13.26325189079236</v>
       </c>
       <c r="O7">
-        <v>25.82429611938333</v>
+        <v>16.58007195684569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.25709901736279</v>
+        <v>12.17392177979934</v>
       </c>
       <c r="C8">
-        <v>4.117848608523504</v>
+        <v>6.30630248865784</v>
       </c>
       <c r="D8">
-        <v>14.78077004672578</v>
+        <v>10.82537601450795</v>
       </c>
       <c r="E8">
-        <v>16.1070083647948</v>
+        <v>10.93871975239626</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.27443932312184</v>
+        <v>26.08071553015751</v>
       </c>
       <c r="H8">
-        <v>16.25737113931234</v>
+        <v>9.930600276285</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.385501568271895</v>
+        <v>5.426406813628327</v>
       </c>
       <c r="K8">
-        <v>9.677201539010156</v>
+        <v>10.66469871981898</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.355181030705</v>
+        <v>11.83656032367749</v>
       </c>
       <c r="N8">
-        <v>20.06001201667788</v>
+        <v>13.00932090104089</v>
       </c>
       <c r="O8">
-        <v>25.73185836550092</v>
+        <v>16.58558845400826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.82841258691324</v>
+        <v>14.07376784224921</v>
       </c>
       <c r="C9">
-        <v>4.480492546997845</v>
+        <v>7.023349842600239</v>
       </c>
       <c r="D9">
-        <v>14.86502004246977</v>
+        <v>11.7020515434904</v>
       </c>
       <c r="E9">
-        <v>16.12759737335171</v>
+        <v>11.58055945667264</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.16574600182818</v>
+        <v>27.01786269597208</v>
       </c>
       <c r="H9">
-        <v>16.16062521468277</v>
+        <v>9.852428999888808</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.347135672981754</v>
+        <v>5.411315706057158</v>
       </c>
       <c r="K9">
-        <v>10.05489991613768</v>
+        <v>12.15039773284691</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.50445794557015</v>
+        <v>12.97429559916106</v>
       </c>
       <c r="N9">
-        <v>19.92149029132502</v>
+        <v>12.53228323547875</v>
       </c>
       <c r="O9">
-        <v>25.58753218658116</v>
+        <v>16.69506360069522</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.23748544830491</v>
+        <v>15.32799399989822</v>
       </c>
       <c r="C10">
-        <v>4.725966213498171</v>
+        <v>7.506919377056888</v>
       </c>
       <c r="D10">
-        <v>14.94063831228132</v>
+        <v>12.33853428022797</v>
       </c>
       <c r="E10">
-        <v>16.15670328038593</v>
+        <v>12.06360513033159</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>36.13032705961124</v>
+        <v>27.82084597858615</v>
       </c>
       <c r="H10">
-        <v>16.10054087902052</v>
+        <v>9.825112342707982</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.323345996871147</v>
+        <v>5.410312919686632</v>
       </c>
       <c r="K10">
-        <v>10.33030528782416</v>
+        <v>13.13819154820573</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.62577040840469</v>
+        <v>13.77464554860054</v>
       </c>
       <c r="N10">
-        <v>19.82783564714785</v>
+        <v>12.19312932515898</v>
       </c>
       <c r="O10">
-        <v>25.50408712141415</v>
+        <v>16.84135961026071</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.42037384963327</v>
+        <v>15.86840144960488</v>
       </c>
       <c r="C11">
-        <v>4.832810881229221</v>
+        <v>7.717261382562887</v>
       </c>
       <c r="D11">
-        <v>14.97793315498053</v>
+        <v>12.62531704595951</v>
       </c>
       <c r="E11">
-        <v>16.17294668110715</v>
+        <v>12.2851161118672</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>36.12389356584374</v>
+        <v>28.21142465507616</v>
       </c>
       <c r="H11">
-        <v>16.07559242943749</v>
+        <v>9.819847147632885</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.313474046056227</v>
+        <v>5.412177329766267</v>
       </c>
       <c r="K11">
-        <v>10.45460328839771</v>
+        <v>13.56513076875129</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.68334305829903</v>
+        <v>14.12974310338493</v>
       </c>
       <c r="N11">
-        <v>19.78697460639721</v>
+        <v>12.0409641465066</v>
       </c>
       <c r="O11">
-        <v>25.47104421187314</v>
+        <v>16.92339286784014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.48910069973303</v>
+        <v>16.06875261609732</v>
       </c>
       <c r="C12">
-        <v>4.872557778678487</v>
+        <v>7.795513313132226</v>
       </c>
       <c r="D12">
-        <v>14.99246403075995</v>
+        <v>12.73343993745862</v>
       </c>
       <c r="E12">
-        <v>16.17952602533799</v>
+        <v>12.36919570181852</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>36.12284999730003</v>
+        <v>28.36298117652986</v>
       </c>
       <c r="H12">
-        <v>16.06648781015172</v>
+        <v>9.81893644644221</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.309872069534965</v>
+        <v>5.413228177148981</v>
       </c>
       <c r="K12">
-        <v>10.50148717868127</v>
+        <v>13.72359355182626</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.70547466931058</v>
+        <v>14.26283255324876</v>
       </c>
       <c r="N12">
-        <v>19.77175091890984</v>
+        <v>11.98361861162171</v>
       </c>
       <c r="O12">
-        <v>25.45923961455691</v>
+        <v>16.95677572426547</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.47432371313249</v>
+        <v>16.02579343580272</v>
       </c>
       <c r="C13">
-        <v>4.864029557103793</v>
+        <v>7.778722797468751</v>
       </c>
       <c r="D13">
-        <v>14.98931653251744</v>
+        <v>12.71017602309341</v>
       </c>
       <c r="E13">
-        <v>16.17809005577212</v>
+        <v>12.35107968392369</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>36.12301280645324</v>
+        <v>28.330178151893</v>
       </c>
       <c r="H13">
-        <v>16.06843340651344</v>
+        <v>9.819083544536984</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.310641761776758</v>
+        <v>5.412986340478921</v>
       </c>
       <c r="K13">
-        <v>10.49139879663494</v>
+        <v>13.68960824834464</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.70069376405381</v>
+        <v>14.23423186451941</v>
       </c>
       <c r="N13">
-        <v>19.77501853359897</v>
+        <v>11.99595718915869</v>
       </c>
       <c r="O13">
-        <v>25.46175044075787</v>
+        <v>16.94948156673768</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.42603902745602</v>
+        <v>15.88497015951966</v>
       </c>
       <c r="C14">
-        <v>4.836095270367446</v>
+        <v>7.723727337541142</v>
       </c>
       <c r="D14">
-        <v>14.97912048868132</v>
+        <v>12.63422232326812</v>
       </c>
       <c r="E14">
-        <v>16.17347940487608</v>
+        <v>12.29202972236025</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36.12377979849092</v>
+        <v>28.22382003536222</v>
       </c>
       <c r="H14">
-        <v>16.07483651656982</v>
+        <v>9.819750205417471</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.313174979040541</v>
+        <v>5.41225680750425</v>
       </c>
       <c r="K14">
-        <v>10.45846440540825</v>
+        <v>13.57823183281637</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.68515730058978</v>
+        <v>14.14072051335707</v>
       </c>
       <c r="N14">
-        <v>19.78571715050598</v>
+        <v>12.03624092993516</v>
       </c>
       <c r="O14">
-        <v>25.47005884504126</v>
+        <v>16.92609230776313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.39639241362934</v>
+        <v>15.79815461149702</v>
       </c>
       <c r="C15">
-        <v>4.818891349932453</v>
+        <v>7.689858372714532</v>
       </c>
       <c r="D15">
-        <v>14.97292801301954</v>
+        <v>12.58763441269759</v>
       </c>
       <c r="E15">
-        <v>16.17071091796405</v>
+        <v>12.25588414263978</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36.12443097698428</v>
+        <v>28.15914863325449</v>
       </c>
       <c r="H15">
-        <v>16.0788032502186</v>
+        <v>9.820301217519187</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.31474439116017</v>
+        <v>5.411855192015523</v>
       </c>
       <c r="K15">
-        <v>10.43826578163745</v>
+        <v>13.50959302914311</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.67568335830012</v>
+        <v>14.08326032759474</v>
       </c>
       <c r="N15">
-        <v>19.79230282145749</v>
+        <v>12.06095097034706</v>
       </c>
       <c r="O15">
-        <v>25.47524021794295</v>
+        <v>16.9120703584963</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.22546286317024</v>
+        <v>15.29207434038033</v>
       </c>
       <c r="C16">
-        <v>4.718884900094737</v>
+        <v>7.49297777547083</v>
       </c>
       <c r="D16">
-        <v>14.93825858113851</v>
+        <v>12.31972985373144</v>
       </c>
       <c r="E16">
-        <v>16.15570187228476</v>
+        <v>12.04915955392444</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.13094236102113</v>
+        <v>27.7958312846401</v>
       </c>
       <c r="H16">
-        <v>16.10221929301765</v>
+        <v>9.825605061881474</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.324010244333529</v>
+        <v>5.4102387162504</v>
       </c>
       <c r="K16">
-        <v>10.32215854633415</v>
+        <v>13.10984005573832</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.62205481973384</v>
+        <v>13.75125054747075</v>
       </c>
       <c r="N16">
-        <v>19.83054098765604</v>
+        <v>12.20311390129851</v>
       </c>
       <c r="O16">
-        <v>25.50634557961706</v>
+        <v>16.83631804249352</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.11973283161407</v>
+        <v>14.97392120139116</v>
       </c>
       <c r="C17">
-        <v>4.656284318916414</v>
+        <v>7.369717871153616</v>
       </c>
       <c r="D17">
-        <v>14.91772595830673</v>
+        <v>12.15461308514704</v>
       </c>
       <c r="E17">
-        <v>16.14726106551762</v>
+        <v>11.92275246254322</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>36.13741677071211</v>
+        <v>27.57944078566206</v>
       </c>
       <c r="H17">
-        <v>16.11719491309541</v>
+        <v>9.830730422419061</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.329937670230425</v>
+        <v>5.409849231976879</v>
       </c>
       <c r="K17">
-        <v>10.25064674733823</v>
+        <v>12.85887161166608</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.58975761405856</v>
+        <v>13.54520549942387</v>
       </c>
       <c r="N17">
-        <v>19.85444446285873</v>
+        <v>12.29084896369611</v>
       </c>
       <c r="O17">
-        <v>25.52668775653385</v>
+        <v>16.7938784167467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.05862223057593</v>
+        <v>14.78808758523653</v>
       </c>
       <c r="C18">
-        <v>4.619825169151828</v>
+        <v>7.297915514050607</v>
       </c>
       <c r="D18">
-        <v>14.90618922540696</v>
+        <v>12.05938683413557</v>
       </c>
       <c r="E18">
-        <v>16.14268902387149</v>
+        <v>11.85021621771129</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>36.14205170067458</v>
+        <v>27.4573595863189</v>
       </c>
       <c r="H18">
-        <v>16.1260329097043</v>
+        <v>9.834349160904654</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.333436414396415</v>
+        <v>5.409842948201801</v>
       </c>
       <c r="K18">
-        <v>10.20942480206745</v>
+        <v>12.71241040971986</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.5714066101642</v>
+        <v>13.4258521731799</v>
       </c>
       <c r="N18">
-        <v>19.8683572288705</v>
+        <v>12.34151297239809</v>
       </c>
       <c r="O18">
-        <v>25.53885076524803</v>
+        <v>16.7709202049186</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.0378823128726</v>
+        <v>14.72467832212684</v>
       </c>
       <c r="C19">
-        <v>4.607403569745768</v>
+        <v>7.273449301573685</v>
       </c>
       <c r="D19">
-        <v>14.90233023216792</v>
+        <v>12.02710359009499</v>
       </c>
       <c r="E19">
-        <v>16.14118969610073</v>
+        <v>11.82568765826542</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>36.14377743475179</v>
+        <v>27.41643330423137</v>
       </c>
       <c r="H19">
-        <v>16.12906384795301</v>
+        <v>9.835688009167832</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.334636400673018</v>
+        <v>5.409877883556764</v>
       </c>
       <c r="K19">
-        <v>10.19545360954893</v>
+        <v>12.66245832228667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.56523239727233</v>
+        <v>13.38529951642202</v>
       </c>
       <c r="N19">
-        <v>19.87309607461558</v>
+        <v>12.35870231543627</v>
       </c>
       <c r="O19">
-        <v>25.5430483915237</v>
+        <v>16.76339346351721</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.13101927587559</v>
+        <v>15.00808278612428</v>
       </c>
       <c r="C20">
-        <v>4.662995285693916</v>
+        <v>7.382933041023929</v>
       </c>
       <c r="D20">
-        <v>14.91988348559541</v>
+        <v>12.17221709583958</v>
       </c>
       <c r="E20">
-        <v>16.1481303502862</v>
+        <v>11.93619156896969</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>36.13663326214554</v>
+        <v>27.6022293737143</v>
       </c>
       <c r="H20">
-        <v>16.11557750673867</v>
+        <v>9.830115015949973</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.329297430546756</v>
+        <v>5.409868078709854</v>
       </c>
       <c r="K20">
-        <v>10.25826896076962</v>
+        <v>12.88580601170234</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.59317246263828</v>
+        <v>13.56722712980215</v>
       </c>
       <c r="N20">
-        <v>19.85188291958797</v>
+        <v>12.28148880148284</v>
       </c>
       <c r="O20">
-        <v>25.52447439878279</v>
+        <v>16.79824523999802</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.44023629082961</v>
+        <v>15.92644941076416</v>
       </c>
       <c r="C21">
-        <v>4.844319735086024</v>
+        <v>7.739918921047757</v>
       </c>
       <c r="D21">
-        <v>14.98210430603379</v>
+        <v>12.65654524438181</v>
       </c>
       <c r="E21">
-        <v>16.17482207001004</v>
+        <v>12.3093691716188</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36.12351671605965</v>
+        <v>28.25496077531603</v>
       </c>
       <c r="H21">
-        <v>16.07294646426111</v>
+        <v>9.819524562743783</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.312427214563835</v>
+        <v>5.412461639719603</v>
       </c>
       <c r="K21">
-        <v>10.46814339397354</v>
+        <v>13.61103276850789</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.68971188487788</v>
+        <v>14.16822507934827</v>
       </c>
       <c r="N21">
-        <v>19.78256794491811</v>
+        <v>12.0244013600528</v>
       </c>
       <c r="O21">
-        <v>25.46759924188366</v>
+        <v>16.93289865112356</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.63921555722518</v>
+        <v>16.50167553025892</v>
       </c>
       <c r="C22">
-        <v>4.958663554571794</v>
+        <v>7.965066460205171</v>
       </c>
       <c r="D22">
-        <v>15.02514387935627</v>
+        <v>12.9702815278163</v>
       </c>
       <c r="E22">
-        <v>16.19476135528181</v>
+        <v>12.55439533585679</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36.12306146166339</v>
+        <v>28.70285197600193</v>
       </c>
       <c r="H22">
-        <v>16.04708279341243</v>
+        <v>9.81894216577423</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.302195969636482</v>
+        <v>5.416172080786927</v>
       </c>
       <c r="K22">
-        <v>10.6042109313705</v>
+        <v>14.06631076471389</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.75472362052973</v>
+        <v>14.55294913300476</v>
       </c>
       <c r="N22">
-        <v>19.73872037328383</v>
+        <v>11.85797481533336</v>
       </c>
       <c r="O22">
-        <v>25.4345553970269</v>
+        <v>17.03445811407113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.53332275379228</v>
+        <v>16.19693664507896</v>
       </c>
       <c r="C23">
-        <v>4.898022649155172</v>
+        <v>7.845651303183033</v>
       </c>
       <c r="D23">
-        <v>15.00195843787193</v>
+        <v>12.8031139163794</v>
       </c>
       <c r="E23">
-        <v>16.18389236827607</v>
+        <v>12.42353379629736</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>36.12256168830083</v>
+        <v>28.46185264218645</v>
       </c>
       <c r="H23">
-        <v>16.06070390013038</v>
+        <v>9.818654948782113</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.307583989901893</v>
+        <v>5.414003563859264</v>
       </c>
       <c r="K23">
-        <v>10.53170341621075</v>
+        <v>13.8250256448116</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.71985463259264</v>
+        <v>14.34837688352051</v>
       </c>
       <c r="N23">
-        <v>19.76198999758644</v>
+        <v>11.94666369932973</v>
       </c>
       <c r="O23">
-        <v>25.45181355953889</v>
+        <v>16.97898380039641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.12591768143526</v>
+        <v>14.9926474420215</v>
       </c>
       <c r="C24">
-        <v>4.659962717719563</v>
+        <v>7.376961385095167</v>
       </c>
       <c r="D24">
-        <v>14.91890723289738</v>
+        <v>12.16425924598027</v>
       </c>
       <c r="E24">
-        <v>16.14773647206589</v>
+        <v>11.93011531826135</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>36.13698464341999</v>
+        <v>27.59191941371905</v>
       </c>
       <c r="H24">
-        <v>16.11630802496043</v>
+        <v>9.830391151791089</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.329586599464825</v>
+        <v>5.40985888105324</v>
       </c>
       <c r="K24">
-        <v>10.2548232938224</v>
+        <v>12.87363574844832</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.59162793238892</v>
+        <v>13.55727393260513</v>
       </c>
       <c r="N24">
-        <v>19.85304046260532</v>
+        <v>12.28571983113016</v>
       </c>
       <c r="O24">
-        <v>25.52547360003674</v>
+        <v>16.79626651816481</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.67541275587771</v>
+        <v>13.58486177577265</v>
       </c>
       <c r="C25">
-        <v>4.38596381572502</v>
+        <v>6.836854366318107</v>
       </c>
       <c r="D25">
-        <v>14.83979172402793</v>
+        <v>11.46580701762879</v>
       </c>
       <c r="E25">
-        <v>16.11956239977939</v>
+        <v>11.40464553367993</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36.18735947123493</v>
+        <v>26.74442428574754</v>
       </c>
       <c r="H25">
-        <v>16.18486605728315</v>
+        <v>9.868492841908285</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.356740897625166</v>
+        <v>5.413670408122796</v>
       </c>
       <c r="K25">
-        <v>9.952902402158394</v>
+        <v>11.76670454251217</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.46198385856963</v>
+        <v>12.67225570120464</v>
       </c>
       <c r="N25">
-        <v>19.95753265838665</v>
+        <v>12.65923776178936</v>
       </c>
       <c r="O25">
-        <v>25.62261356220631</v>
+        <v>16.6542867931607</v>
       </c>
     </row>
   </sheetData>
